--- a/Glossary.xlsx
+++ b/Glossary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dany\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Glossary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6664C771-6922-4977-96A1-A0DB843DBA24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14414F5-6B79-4BE8-96D4-4E67D3B670DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B1BE41A7-4D64-4D3E-AD7D-019A5C65E8F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B1BE41A7-4D64-4D3E-AD7D-019A5C65E8F0}"/>
   </bookViews>
   <sheets>
     <sheet name="vocabulary" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="1006">
   <si>
     <t>ENGLISH</t>
   </si>
@@ -2249,15 +2249,6 @@
     <t>código oculto dentro de una aplicación de software que solo se ejecuta si se ejecuta un procedimiento especial.</t>
   </si>
   <si>
-    <t>HYPERLINK</t>
-  </si>
-  <si>
-    <t>https://goo.gl/yokC9h</t>
-  </si>
-  <si>
-    <t>https://goo.gl/cGvGfR</t>
-  </si>
-  <si>
     <t>https://goo.gl/iWq9kY</t>
   </si>
   <si>
@@ -2502,9 +2493,6 @@
     <t>Prezi</t>
   </si>
   <si>
-    <t>Cloud Nine</t>
-  </si>
-  <si>
     <t>Github</t>
   </si>
   <si>
@@ -2515,9 +2503,6 @@
   </si>
   <si>
     <t>10 algorithm that you should know</t>
-  </si>
-  <si>
-    <t>Edx</t>
   </si>
   <si>
     <t>Firebase</t>
@@ -2545,9 +2530,6 @@
     <t>50 Essential Online Tools For Every Computer Science Student</t>
   </si>
   <si>
-    <t>Mercurial</t>
-  </si>
-  <si>
     <t>CyberDuck</t>
   </si>
   <si>
@@ -2585,9 +2567,6 @@
   </si>
   <si>
     <t>How to Configure Windows 10 to Protect Your Privacy</t>
-  </si>
-  <si>
-    <t>How to geek</t>
   </si>
   <si>
     <t>How to Clean Up a Slow Performing Computer</t>
@@ -2639,9 +2618,6 @@
     <t>Techoepedia</t>
   </si>
   <si>
-    <t>URL / LIINK</t>
-  </si>
-  <si>
     <t>http://es.pons.com/traducción</t>
   </si>
   <si>
@@ -2712,9 +2688,6 @@
   </si>
   <si>
     <t>https://prezi.com/</t>
-  </si>
-  <si>
-    <t>https://c9.io/login</t>
   </si>
   <si>
     <t>https://github.com/</t>
@@ -2730,9 +2703,6 @@
 </t>
   </si>
   <si>
-    <t>https://www.edx.org/es</t>
-  </si>
-  <si>
     <t>https://firebase.google.com/support/?hl=es-419</t>
   </si>
   <si>
@@ -2757,9 +2727,6 @@
     <t>https://www.computersciencezone.org/50-essential-online-tools-for-every-computer-science-student/</t>
   </si>
   <si>
-    <t>https://www.mercurial-scm.org/</t>
-  </si>
-  <si>
     <t>https://cyberduck.io/</t>
   </si>
   <si>
@@ -2797,9 +2764,6 @@
   </si>
   <si>
     <t>https://lifehacker.com/how-to-configure-windows-10-to-protect-your-privacy-1716204024</t>
-  </si>
-  <si>
-    <t>https://www.howtogeek.com/</t>
   </si>
   <si>
     <t>https://www.wikihow.com/Clean-Up-a-Slow-Performing-Computer</t>
@@ -2929,9 +2893,6 @@
     <t>Presentaciones gratis</t>
   </si>
   <si>
-    <t>IDE online</t>
-  </si>
-  <si>
     <t>Charla de Nuevas tecnologias y de lideraqzgo empresarial</t>
   </si>
   <si>
@@ -2963,9 +2924,6 @@
     <t>Herramientas para facilitar el desarrollo de un software</t>
   </si>
   <si>
-    <t>Mercurial es una herramienta de gestión de control de fuente distribuida gratuita. Maneja eficientemente proyectos de cualquier tamaño y ofrece una interfaz fácil e intuitiva.</t>
-  </si>
-  <si>
     <t>Cyberduck is a libre FTP, SFTP, WebDAV, Amazon S3, OpenStack Swift, Backblaze B2, Microsoft Azure &amp; OneDrive, Google Drive and Dropbox browser for Mac and Windows.</t>
   </si>
   <si>
@@ -3033,6 +2991,84 @@
   </si>
   <si>
     <t>Cursos pagos</t>
+  </si>
+  <si>
+    <t>HYPERLINKS</t>
+  </si>
+  <si>
+    <t>Artificial</t>
+  </si>
+  <si>
+    <t>Intelligence</t>
+  </si>
+  <si>
+    <t>Faces</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Adversarial</t>
+  </si>
+  <si>
+    <t>Generative</t>
+  </si>
+  <si>
+    <t>Nvidia</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Exist</t>
+  </si>
+  <si>
+    <t>Inteligencia</t>
+  </si>
+  <si>
+    <t>Rostros</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Adverso</t>
+  </si>
+  <si>
+    <t>Generativo</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Existe</t>
+  </si>
+  <si>
+    <t>Compañía de Tecnología de visualización computacional</t>
+  </si>
+  <si>
+    <t>https://www.nvidia.com</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org › wiki › Artificial</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org › wiki › Inteligencia</t>
+  </si>
+  <si>
+    <t>Caras o rostros humanos</t>
+  </si>
+  <si>
+    <t>URL / LINK</t>
+  </si>
+  <si>
+    <t>YourStory</t>
+  </si>
+  <si>
+    <t>http://yourstory.com</t>
+  </si>
+  <si>
+    <t>Noticias relacionadas con informatica</t>
   </si>
 </sst>
 </file>
@@ -3218,7 +3254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -3299,6 +3335,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3616,10 +3655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60247A8-F498-4F09-91ED-47E7097C9309}">
-  <dimension ref="A1:D310"/>
+  <dimension ref="A1:D319"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3640,3680 +3679,3776 @@
       <c r="C1" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="10" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>1</v>
+        <v>981</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>981</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>2</v>
+        <v>982</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>990</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>3</v>
+        <v>983</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>313</v>
+        <v>991</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>615</v>
+        <v>1001</v>
       </c>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>744</v>
-      </c>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>746</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B28" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D28" s="12" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="D20" s="13" t="s">
+    <row r="32" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="D21" s="12" t="s">
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="D22" s="12" t="s">
+    <row r="34" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>344</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
-        <v>36</v>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>37</v>
+        <v>337</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C41" s="9"/>
-      <c r="D41" s="12" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>761</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>44</v>
+      <c r="A45" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>45</v>
+    <row r="46" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C46" s="9"/>
+        <v>345</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>640</v>
+      </c>
       <c r="D46" s="12" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
-        <v>46</v>
+      <c r="A47" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="10"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="9"/>
+        <v>347</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>641</v>
+      </c>
       <c r="D48" s="10"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C49" s="9"/>
+        <v>348</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>642</v>
+      </c>
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="12" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="10"/>
+        <v>350</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>758</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="10"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10"/>
+        <v>352</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>645</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C54" s="9"/>
       <c r="D54" s="10"/>
     </row>
-    <row r="55" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>646</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="C55" s="9"/>
       <c r="D55" s="12" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>767</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>651</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C62" s="9"/>
       <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C63" s="9"/>
+        <v>361</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>645</v>
+      </c>
       <c r="D63" s="10"/>
     </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="10"/>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="10"/>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="10"/>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="10"/>
-    </row>
-    <row r="68" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>769</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="10"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="10"/>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="C71" s="9"/>
+        <v>368</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>651</v>
+      </c>
       <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="10"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="10"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
-        <v>74</v>
+      <c r="A75" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="10"/>
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="10"/>
     </row>
-    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="C77" s="9"/>
+        <v>374</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>652</v>
+      </c>
       <c r="D77" s="12" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="10"/>
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="10"/>
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="10"/>
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="10"/>
     </row>
     <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="7" t="s">
-        <v>83</v>
+      <c r="A84" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="10"/>
     </row>
     <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C85" s="9"/>
-      <c r="D85" s="2" t="s">
-        <v>771</v>
-      </c>
+      <c r="D85" s="10"/>
     </row>
     <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="12" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C87" s="9"/>
-      <c r="D87" s="12" t="s">
-        <v>771</v>
-      </c>
+      <c r="D87" s="10"/>
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="10"/>
     </row>
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="10"/>
     </row>
     <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="10"/>
     </row>
     <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="10"/>
     </row>
     <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="10"/>
     </row>
     <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C94" s="9"/>
-      <c r="D94" s="10"/>
+      <c r="D94" s="2" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C95" s="9"/>
-      <c r="D95" s="10"/>
+      <c r="D95" s="12" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C96" s="9"/>
-      <c r="D96" s="10"/>
+      <c r="D96" s="12" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="10"/>
     </row>
-    <row r="98" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="10"/>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>757</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="10"/>
     </row>
     <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="10"/>
     </row>
-    <row r="101" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>757</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="10"/>
     </row>
     <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C102" s="9"/>
-      <c r="D102" s="12" t="s">
-        <v>771</v>
-      </c>
+      <c r="D102" s="10"/>
     </row>
     <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="10"/>
     </row>
     <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="10"/>
     </row>
     <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>411</v>
+        <v>95</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>402</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="10"/>
     </row>
     <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="10"/>
     </row>
-    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="10"/>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="10"/>
+        <v>405</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="10"/>
     </row>
-    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="10"/>
+        <v>407</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C111" s="9"/>
-      <c r="D111" s="10"/>
+      <c r="D111" s="12" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="10"/>
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="10"/>
     </row>
     <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>420</v>
+        <v>104</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>411</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="10"/>
     </row>
     <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="10"/>
     </row>
     <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="10"/>
     </row>
     <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="10"/>
     </row>
     <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="10"/>
     </row>
     <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="10"/>
     </row>
     <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="10"/>
     </row>
-    <row r="121" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>656</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="10"/>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>757</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="10"/>
     </row>
     <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>658</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="C123" s="9"/>
       <c r="D123" s="10"/>
     </row>
-    <row r="124" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>659</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="10"/>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="C125" s="9"/>
+      <c r="D125" s="10"/>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="C126" s="9"/>
+      <c r="D126" s="10"/>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="10"/>
+    </row>
+    <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>663</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="C128" s="9"/>
+      <c r="D128" s="10"/>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>664</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="10"/>
+    </row>
+    <row r="130" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="D132" s="10"/>
+    </row>
+    <row r="133" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B132" s="8"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="10"/>
-    </row>
-    <row r="133" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>668</v>
-      </c>
-      <c r="D134" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="D137" s="12" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="D138" s="10"/>
-    </row>
-    <row r="139" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="D139" s="12" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="D141" s="12" t="s">
-        <v>779</v>
-      </c>
+      <c r="B141" s="8"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="10"/>
     </row>
     <row r="142" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>677</v>
-      </c>
-      <c r="D143" s="10"/>
-    </row>
-    <row r="144" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>779</v>
+        <v>754</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="D147" s="10"/>
+    </row>
+    <row r="148" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="D152" s="10"/>
+    </row>
+    <row r="153" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B154" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="C154" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="D145" s="13"/>
-    </row>
-    <row r="146" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="7" t="s">
+      <c r="D154" s="13"/>
+    </row>
+    <row r="155" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B155" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="C155" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="D146" s="10"/>
-    </row>
-    <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="C147" s="9"/>
-      <c r="D147" s="10"/>
-    </row>
-    <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="C148" s="9"/>
-      <c r="D148" s="10"/>
-    </row>
-    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="C149" s="9"/>
-      <c r="D149" s="10"/>
-    </row>
-    <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="C150" s="9"/>
-      <c r="D150" s="10"/>
-    </row>
-    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="10"/>
-    </row>
-    <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="C152" s="9"/>
-      <c r="D152" s="10"/>
-    </row>
-    <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="C153" s="9"/>
-      <c r="D153" s="10"/>
-    </row>
-    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="C154" s="9"/>
-      <c r="D154" s="10"/>
-    </row>
-    <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C155" s="9"/>
       <c r="D155" s="10"/>
     </row>
     <row r="156" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="10"/>
     </row>
     <row r="157" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="10"/>
     </row>
-    <row r="158" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="D158" s="12" t="s">
-        <v>780</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C158" s="9"/>
+      <c r="D158" s="10"/>
     </row>
     <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="10"/>
     </row>
     <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="10"/>
     </row>
     <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="10"/>
     </row>
     <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="10"/>
     </row>
     <row r="163" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="D163" s="12" t="s">
-        <v>781</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="C163" s="9"/>
+      <c r="D163" s="10"/>
     </row>
     <row r="164" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="D164" s="12" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+      <c r="C164" s="9"/>
+      <c r="D164" s="10"/>
+    </row>
+    <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="D165" s="12" t="s">
-        <v>757</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="C165" s="9"/>
+      <c r="D165" s="10"/>
     </row>
     <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C166" s="9"/>
       <c r="D166" s="10"/>
     </row>
-    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="C167" s="9"/>
-      <c r="D167" s="10"/>
+        <v>462</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="10"/>
     </row>
-    <row r="169" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="D169" s="12" t="s">
-        <v>782</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="C169" s="9"/>
+      <c r="D169" s="10"/>
     </row>
     <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="10"/>
     </row>
     <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C171" s="9"/>
       <c r="D171" s="10"/>
     </row>
     <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="C172" s="9"/>
-      <c r="D172" s="10"/>
+        <v>467</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="C173" s="9"/>
-      <c r="D173" s="10"/>
-    </row>
-    <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="C174" s="9"/>
-      <c r="D174" s="10"/>
+        <v>468</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="10"/>
     </row>
     <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="10"/>
     </row>
     <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="10"/>
     </row>
-    <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="C178" s="9"/>
-      <c r="D178" s="10"/>
+        <v>472</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>779</v>
+      </c>
     </row>
     <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C179" s="9"/>
       <c r="D179" s="10"/>
     </row>
     <row r="180" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C180" s="9"/>
       <c r="D180" s="10"/>
     </row>
     <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="10"/>
     </row>
     <row r="182" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C182" s="9"/>
       <c r="D182" s="10"/>
     </row>
     <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="C183" s="9"/>
-      <c r="D183" s="12" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D183" s="10"/>
+    </row>
+    <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>686</v>
-      </c>
-      <c r="D184" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+      <c r="C184" s="9"/>
+      <c r="D184" s="10"/>
+    </row>
+    <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="D185" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+      <c r="C185" s="9"/>
+      <c r="D185" s="10"/>
+    </row>
+    <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="D186" s="12" t="s">
-        <v>757</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C186" s="9"/>
+      <c r="D186" s="10"/>
     </row>
     <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="10"/>
     </row>
     <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C188" s="9"/>
       <c r="D188" s="10"/>
     </row>
-    <row r="189" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="C189" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="D189" s="12" t="s">
-        <v>757</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="C189" s="9"/>
+      <c r="D189" s="10"/>
     </row>
     <row r="190" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C190" s="9"/>
       <c r="D190" s="10"/>
     </row>
     <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C191" s="9"/>
       <c r="D191" s="10"/>
     </row>
-    <row r="192" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="C192" s="9" t="s">
-        <v>690</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C192" s="9"/>
       <c r="D192" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="C193" s="9"/>
-      <c r="D193" s="10"/>
-    </row>
-    <row r="194" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="D193" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>350</v>
+        <v>488</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="D196" s="13"/>
-    </row>
-    <row r="197" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+      <c r="C196" s="9"/>
+      <c r="D196" s="10"/>
+    </row>
+    <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="C197" s="9" t="s">
-        <v>694</v>
-      </c>
-      <c r="D197" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+      <c r="C197" s="9"/>
+      <c r="D197" s="10"/>
+    </row>
+    <row r="198" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="C199" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="D199" s="12" t="s">
-        <v>757</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="C199" s="9"/>
+      <c r="D199" s="10"/>
     </row>
     <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="C200" s="9" t="s">
-        <v>697</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="C200" s="9"/>
       <c r="D200" s="10"/>
     </row>
-    <row r="201" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="C202" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="D202" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+      <c r="C202" s="9"/>
+      <c r="D202" s="10"/>
+    </row>
+    <row r="203" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="C203" s="9"/>
+        <v>350</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>691</v>
+      </c>
       <c r="D203" s="12" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="C204" s="9"/>
+        <v>497</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>692</v>
+      </c>
       <c r="D204" s="12" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="D205" s="12" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+      <c r="D205" s="13"/>
+    </row>
+    <row r="206" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C206" s="9"/>
-      <c r="D206" s="10"/>
-    </row>
-    <row r="207" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="D206" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="C207" s="9"/>
-      <c r="D207" s="10"/>
-    </row>
-    <row r="208" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="D207" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="C208" s="9"/>
-      <c r="D208" s="10"/>
+        <v>501</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="D208" s="12" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="209" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="C209" s="9"/>
+        <v>502</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>697</v>
+      </c>
       <c r="D209" s="10"/>
     </row>
-    <row r="210" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="C210" s="9"/>
-      <c r="D210" s="10"/>
-    </row>
-    <row r="211" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="D210" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="C211" s="9"/>
-      <c r="D211" s="10"/>
-    </row>
-    <row r="212" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="D211" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="C212" s="9" t="s">
-        <v>701</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="C212" s="9"/>
       <c r="D212" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C213" s="9" t="s">
-        <v>702</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="C213" s="9"/>
       <c r="D213" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="C214" s="9"/>
-      <c r="D214" s="10"/>
-    </row>
-    <row r="215" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="D214" s="12" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="C215" s="9" t="s">
-        <v>703</v>
-      </c>
-      <c r="D215" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+      <c r="C215" s="9"/>
+      <c r="D215" s="10"/>
+    </row>
+    <row r="216" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="C216" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="D216" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+      <c r="C216" s="9"/>
+      <c r="D216" s="10"/>
+    </row>
+    <row r="217" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="C217" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="D217" s="12" t="s">
-        <v>757</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="C217" s="9"/>
+      <c r="D217" s="10"/>
     </row>
     <row r="218" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C218" s="9"/>
       <c r="D218" s="10"/>
     </row>
-    <row r="219" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="17" t="s">
-        <v>218</v>
+    <row r="219" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="C219" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>757</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="C219" s="9"/>
+      <c r="D219" s="10"/>
     </row>
     <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="C220" s="9"/>
       <c r="D220" s="10"/>
     </row>
-    <row r="221" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="C221" s="9"/>
-      <c r="D221" s="10"/>
-    </row>
-    <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="D221" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="C222" s="9"/>
-      <c r="D222" s="10"/>
+        <v>515</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="D222" s="12" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="223" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="C223" s="9"/>
       <c r="D223" s="10"/>
     </row>
-    <row r="224" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="C224" s="9"/>
-      <c r="D224" s="10"/>
-    </row>
-    <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="D224" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="C225" s="9"/>
-      <c r="D225" s="10"/>
-    </row>
-    <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="D225" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="C226" s="9"/>
-      <c r="D226" s="10"/>
+        <v>519</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="D226" s="12" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C227" s="9"/>
       <c r="D227" s="10"/>
     </row>
-    <row r="228" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="7" t="s">
-        <v>227</v>
+    <row r="228" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="17" t="s">
+        <v>218</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="C228" s="9"/>
-      <c r="D228" s="10"/>
-    </row>
-    <row r="229" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="C229" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="D229" s="12" t="s">
-        <v>757</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="C229" s="9"/>
+      <c r="D229" s="10"/>
     </row>
     <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C230" s="9"/>
       <c r="D230" s="10"/>
     </row>
     <row r="231" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C231" s="9"/>
       <c r="D231" s="10"/>
     </row>
     <row r="232" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="C232" s="9" t="s">
-        <v>708</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="C232" s="9"/>
       <c r="D232" s="10"/>
     </row>
-    <row r="233" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="C233" s="9" t="s">
-        <v>709</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="C233" s="9"/>
       <c r="D233" s="10"/>
     </row>
     <row r="234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="C234" s="9"/>
       <c r="D234" s="10"/>
     </row>
     <row r="235" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C235" s="9"/>
       <c r="D235" s="10"/>
     </row>
     <row r="236" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C236" s="9"/>
       <c r="D236" s="10"/>
     </row>
     <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C237" s="9"/>
       <c r="D237" s="10"/>
     </row>
-    <row r="238" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="C238" s="9"/>
-      <c r="D238" s="10"/>
+        <v>531</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="D238" s="12" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="239" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C239" s="9"/>
       <c r="D239" s="10"/>
     </row>
-    <row r="240" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>710</v>
-      </c>
-      <c r="D240" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+      <c r="C240" s="9"/>
+      <c r="D240" s="10"/>
+    </row>
+    <row r="241" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>711</v>
-      </c>
-      <c r="D241" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>708</v>
+      </c>
+      <c r="D241" s="10"/>
+    </row>
+    <row r="242" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>712</v>
-      </c>
-      <c r="D242" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>709</v>
+      </c>
+      <c r="D242" s="10"/>
+    </row>
+    <row r="243" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="C243" s="9" t="s">
-        <v>713</v>
-      </c>
-      <c r="D243" s="12" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+      <c r="C243" s="9"/>
+      <c r="D243" s="10"/>
+    </row>
+    <row r="244" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="C244" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="D244" s="12" t="s">
-        <v>757</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="C244" s="9"/>
+      <c r="D244" s="10"/>
     </row>
     <row r="245" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C245" s="9"/>
       <c r="D245" s="10"/>
     </row>
     <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C246" s="9"/>
       <c r="D246" s="10"/>
     </row>
-    <row r="247" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C247" s="9"/>
       <c r="D247" s="10"/>
     </row>
     <row r="248" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="C248" s="9"/>
       <c r="D248" s="10"/>
     </row>
-    <row r="249" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="C249" s="9"/>
+        <v>542</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>710</v>
+      </c>
       <c r="D249" s="12" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="C250" s="9"/>
-      <c r="D250" s="10"/>
-    </row>
-    <row r="251" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="D250" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="C251" s="9"/>
-      <c r="D251" s="10"/>
-    </row>
-    <row r="252" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="D251" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="C252" s="9"/>
-      <c r="D252" s="10"/>
-    </row>
-    <row r="253" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="D252" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="C253" s="9"/>
-      <c r="D253" s="10"/>
-    </row>
-    <row r="254" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="C254" s="9" t="s">
-        <v>715</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="C254" s="9"/>
       <c r="D254" s="10"/>
     </row>
     <row r="255" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="C255" s="9"/>
       <c r="D255" s="10"/>
     </row>
-    <row r="256" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C256" s="9"/>
       <c r="D256" s="10"/>
     </row>
     <row r="257" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C257" s="9"/>
       <c r="D257" s="10"/>
     </row>
     <row r="258" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="C258" s="9"/>
-      <c r="D258" s="10"/>
+      <c r="D258" s="12" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="259" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="C259" s="9"/>
       <c r="D259" s="10"/>
     </row>
     <row r="260" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C260" s="9"/>
       <c r="D260" s="10"/>
     </row>
     <row r="261" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="C261" s="9"/>
       <c r="D261" s="10"/>
     </row>
     <row r="262" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C262" s="9"/>
       <c r="D262" s="10"/>
     </row>
-    <row r="263" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="D263" s="12" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>715</v>
+      </c>
+      <c r="D263" s="10"/>
+    </row>
+    <row r="264" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="C264" s="9" t="s">
-        <v>717</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="C264" s="9"/>
       <c r="D264" s="10"/>
     </row>
-    <row r="265" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C265" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="D265" s="12" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+      <c r="C265" s="9"/>
+      <c r="D265" s="10"/>
+    </row>
+    <row r="266" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C266" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="D266" s="12" t="s">
-        <v>789</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="C266" s="9"/>
+      <c r="D266" s="10"/>
     </row>
     <row r="267" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C267" s="9"/>
       <c r="D267" s="10"/>
     </row>
     <row r="268" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="C268" s="9"/>
       <c r="D268" s="10"/>
     </row>
     <row r="269" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="C269" s="9"/>
       <c r="D269" s="10"/>
     </row>
     <row r="270" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="C270" s="9"/>
       <c r="D270" s="10"/>
     </row>
     <row r="271" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="C271" s="9"/>
       <c r="D271" s="10"/>
     </row>
-    <row r="272" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="C272" s="9"/>
-      <c r="D272" s="10"/>
-    </row>
-    <row r="273" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="D272" s="12" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="C273" s="9"/>
+        <v>566</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>717</v>
+      </c>
       <c r="D273" s="10"/>
     </row>
-    <row r="274" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="C274" s="9"/>
-      <c r="D274" s="10"/>
-    </row>
-    <row r="275" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D274" s="12" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="C275" s="9"/>
-      <c r="D275" s="10"/>
+        <v>568</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="D275" s="12" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="276" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C276" s="9"/>
       <c r="D276" s="10"/>
     </row>
     <row r="277" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="C277" s="9"/>
       <c r="D277" s="10"/>
     </row>
     <row r="278" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="C278" s="9"/>
       <c r="D278" s="10"/>
     </row>
     <row r="279" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C279" s="9"/>
       <c r="D279" s="10"/>
     </row>
-    <row r="280" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="C280" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="D280" s="12" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+      <c r="C280" s="9"/>
+      <c r="D280" s="10"/>
+    </row>
+    <row r="281" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="C281" s="9"/>
-      <c r="D281" s="12" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D281" s="10"/>
+    </row>
+    <row r="282" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="C282" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="D282" s="12" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+      <c r="C282" s="9"/>
+      <c r="D282" s="10"/>
+    </row>
+    <row r="283" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="C283" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="D283" s="12" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+      <c r="C283" s="9"/>
+      <c r="D283" s="10"/>
+    </row>
+    <row r="284" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="C284" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="D284" s="12" t="s">
-        <v>790</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="C284" s="9"/>
+      <c r="D284" s="10"/>
     </row>
     <row r="285" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="C285" s="9"/>
-      <c r="D285" s="13"/>
-    </row>
-    <row r="286" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D285" s="10"/>
+    </row>
+    <row r="286" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="C286" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="D286" s="12" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+      <c r="C286" s="9"/>
+      <c r="D286" s="10"/>
+    </row>
+    <row r="287" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="C287" s="9" t="s">
-        <v>725</v>
-      </c>
-      <c r="D287" s="12" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+      <c r="C287" s="9"/>
+      <c r="D287" s="10"/>
+    </row>
+    <row r="288" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="C288" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="D288" s="12" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+      <c r="C288" s="9"/>
+      <c r="D288" s="10"/>
+    </row>
+    <row r="289" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="C290" s="9"/>
-      <c r="D290" s="10"/>
-    </row>
-    <row r="291" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D290" s="12" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="C291" s="9"/>
-      <c r="D291" s="10"/>
-    </row>
-    <row r="292" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+      <c r="C291" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D291" s="12" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="C292" s="18"/>
-      <c r="D292" s="10"/>
-    </row>
-    <row r="293" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="D292" s="12" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="C293" s="18"/>
-      <c r="D293" s="10"/>
+        <v>586</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="D293" s="12" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="294" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="C294" s="18"/>
-      <c r="D294" s="10"/>
-    </row>
-    <row r="295" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+      <c r="C294" s="9"/>
+      <c r="D294" s="13"/>
+    </row>
+    <row r="295" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="C295" s="18"/>
-      <c r="D295" s="10"/>
-    </row>
-    <row r="296" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="D295" s="12" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="C296" s="18"/>
-      <c r="D296" s="10"/>
-    </row>
-    <row r="297" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="D296" s="12" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="C297" s="18"/>
-      <c r="D297" s="10"/>
-    </row>
-    <row r="298" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+      <c r="C297" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D297" s="12" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="C298" s="18"/>
-      <c r="D298" s="10"/>
-    </row>
-    <row r="299" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+      <c r="C298" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="D298" s="12" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="C299" s="9" t="s">
-        <v>728</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="C299" s="9"/>
       <c r="D299" s="10"/>
     </row>
-    <row r="300" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="C300" s="9" t="s">
-        <v>729</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="C300" s="9"/>
       <c r="D300" s="10"/>
     </row>
     <row r="301" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="C301" s="18"/>
       <c r="D301" s="10"/>
     </row>
     <row r="302" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="C302" s="18"/>
       <c r="D302" s="10"/>
     </row>
     <row r="303" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C303" s="18"/>
       <c r="D303" s="10"/>
     </row>
     <row r="304" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="C304" s="18"/>
       <c r="D304" s="10"/>
     </row>
     <row r="305" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="C305" s="9" t="s">
-        <v>730</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="C305" s="18"/>
       <c r="D305" s="10"/>
     </row>
     <row r="306" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="C306" s="18"/>
       <c r="D306" s="10"/>
     </row>
-    <row r="307" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C307" s="18"/>
+      <c r="D307" s="10"/>
+    </row>
+    <row r="308" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C308" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D308" s="10"/>
+    </row>
+    <row r="309" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C309" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="D309" s="10"/>
+    </row>
+    <row r="310" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="C310" s="18"/>
+      <c r="D310" s="10"/>
+    </row>
+    <row r="311" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C311" s="18"/>
+      <c r="D311" s="10"/>
+    </row>
+    <row r="312" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C312" s="18"/>
+      <c r="D312" s="10"/>
+    </row>
+    <row r="313" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C313" s="18"/>
+      <c r="D313" s="10"/>
+    </row>
+    <row r="314" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="C314" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="D314" s="10"/>
+    </row>
+    <row r="315" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="C315" s="18"/>
+      <c r="D315" s="10"/>
+    </row>
+    <row r="316" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B307" s="8" t="s">
+      <c r="B316" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="C307" s="9" t="s">
+      <c r="C316" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="D307" s="10"/>
-    </row>
-    <row r="308" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="7" t="s">
+      <c r="D316" s="10"/>
+    </row>
+    <row r="317" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B308" s="8" t="s">
+      <c r="B317" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="C308" s="9" t="s">
+      <c r="C317" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="D308" s="10"/>
-    </row>
-    <row r="309" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="7" t="s">
+      <c r="D317" s="10"/>
+    </row>
+    <row r="318" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B309" s="8" t="s">
+      <c r="B318" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="C309" s="9" t="s">
+      <c r="C318" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="D309" s="10"/>
-    </row>
-    <row r="310" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="19" t="s">
+      <c r="D318" s="10"/>
+    </row>
+    <row r="319" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="B310" s="20" t="s">
+      <c r="B319" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="C310" s="21" t="s">
+      <c r="C319" s="21" t="s">
         <v>734</v>
       </c>
-      <c r="D310" s="10"/>
+      <c r="D319" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" xr:uid="{708AABBD-4688-4661-BE4D-7356BBF96BB3}"/>
-    <hyperlink ref="D8" r:id="rId2" xr:uid="{9920B45D-CF91-4702-8F42-3F018963B6E5}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{6A3418C9-F5A2-486D-B346-8EA8AFB05F13}"/>
-    <hyperlink ref="D10" r:id="rId4" xr:uid="{E4210996-A81A-445D-9C7C-B9CF9DBF2C74}"/>
-    <hyperlink ref="D11" r:id="rId5" xr:uid="{6AE6C553-76D2-4C59-B9DB-DF47566DE97F}"/>
-    <hyperlink ref="D12" r:id="rId6" xr:uid="{D4F2A55B-0078-48EB-A599-1EA9ACC43BC8}"/>
-    <hyperlink ref="D13" r:id="rId7" xr:uid="{759C3F39-82D7-4D2C-A18B-C47790472B25}"/>
-    <hyperlink ref="D14" r:id="rId8" xr:uid="{E458E809-475E-41EC-BA4B-7A1CDED33C8A}"/>
-    <hyperlink ref="D15" r:id="rId9" xr:uid="{A9D3C867-92BF-4C94-9C92-18ED3BDF1D61}"/>
-    <hyperlink ref="D16" r:id="rId10" xr:uid="{C4BF33BC-8CB4-45EF-AE7E-CACB3EDBFB69}"/>
-    <hyperlink ref="D17" r:id="rId11" xr:uid="{224F3EEE-3FEE-4135-9609-2A166FE18FCC}"/>
-    <hyperlink ref="D18" r:id="rId12" xr:uid="{D8CA7CD3-EDB2-4704-BCD2-32474C679DDF}"/>
-    <hyperlink ref="D19" r:id="rId13" xr:uid="{3C5D3CFE-C3D4-42F5-9C12-37D6984DE4DC}"/>
-    <hyperlink ref="D21" r:id="rId14" xr:uid="{463DA0EE-8D49-4205-88E2-7D431CCB3847}"/>
-    <hyperlink ref="D22" r:id="rId15" xr:uid="{892DBE88-85BA-4BA4-8BE6-6BF725CDCCA1}"/>
-    <hyperlink ref="D23" r:id="rId16" xr:uid="{40D7750F-7EE6-4610-A115-9DE286EFA9E5}"/>
-    <hyperlink ref="D24" r:id="rId17" xr:uid="{3E0214E6-2517-4AD2-94F7-D796B3811A0D}"/>
-    <hyperlink ref="D25" r:id="rId18" xr:uid="{96613EB2-60B0-452A-8FE3-B75198FE2E04}"/>
-    <hyperlink ref="D29" r:id="rId19" xr:uid="{B65CB163-3ABD-4A62-8039-5062D2DA2EA7}"/>
-    <hyperlink ref="D30" r:id="rId20" xr:uid="{89CCABFC-3691-4BC2-8602-C0767E2AF3E1}"/>
-    <hyperlink ref="D31" r:id="rId21" xr:uid="{51F87DC0-D0E2-496B-A28D-91BA52D68213}"/>
-    <hyperlink ref="D35" r:id="rId22" xr:uid="{E8D2B75E-B5A2-4E0B-B03C-1CF48C071664}"/>
-    <hyperlink ref="D37" r:id="rId23" xr:uid="{2FD60176-FF06-46F0-AB26-C76215743B8A}"/>
-    <hyperlink ref="D41" r:id="rId24" xr:uid="{3F79393E-C482-4690-94D9-5B506D6F60E5}"/>
-    <hyperlink ref="D42" r:id="rId25" xr:uid="{77056D57-31F8-44F6-84EF-E83307AEFC94}"/>
-    <hyperlink ref="D44" r:id="rId26" xr:uid="{FBA49E90-FEA8-455D-BAFB-A4C68A4A9A07}"/>
-    <hyperlink ref="D46" r:id="rId27" xr:uid="{8593C257-D66C-4AEE-A7A0-CDD815C0763E}"/>
-    <hyperlink ref="D55" r:id="rId28" xr:uid="{34A6F1EC-5836-40B6-8405-8BEEC347CC88}"/>
-    <hyperlink ref="D56" r:id="rId29" xr:uid="{93410412-00BD-4BBE-847C-A5F681B711BD}"/>
-    <hyperlink ref="D57" r:id="rId30" xr:uid="{5787538F-AB69-492F-B13D-F371DC97E3D1}"/>
-    <hyperlink ref="D58" r:id="rId31" xr:uid="{7675EA97-D569-4C3C-8D12-3C9F106AFBBC}"/>
-    <hyperlink ref="D61" r:id="rId32" xr:uid="{88FB2362-1624-4182-BEE0-D874DA489403}"/>
-    <hyperlink ref="D68" r:id="rId33" xr:uid="{D7F5D6C7-0524-4289-93E6-3166D25DA756}"/>
-    <hyperlink ref="D77" r:id="rId34" xr:uid="{68B71465-AFD1-47B1-A46F-408FD7FDA55C}"/>
-    <hyperlink ref="D85" r:id="rId35" xr:uid="{FA5B5BDD-6CD9-438F-8075-C1AE2BFCAACD}"/>
-    <hyperlink ref="D86" r:id="rId36" xr:uid="{69139EF4-68EE-493D-B42F-08F1E1CB38B9}"/>
-    <hyperlink ref="D87" r:id="rId37" xr:uid="{130DECEE-A6B2-4725-853A-F137C941E792}"/>
-    <hyperlink ref="D98" r:id="rId38" xr:uid="{1D851941-100A-4A7F-B94E-05725620A3E6}"/>
-    <hyperlink ref="D99" r:id="rId39" xr:uid="{1C46177C-616A-4439-A904-45089FEBB851}"/>
-    <hyperlink ref="D101" r:id="rId40" xr:uid="{5AFBB7A2-A058-4E16-B5CF-547E194B79B6}"/>
-    <hyperlink ref="D102" r:id="rId41" xr:uid="{6A3F99DC-543D-4385-8B86-5C18CBBC1677}"/>
-    <hyperlink ref="D121" r:id="rId42" xr:uid="{3E142412-002C-4C66-9965-630266C01EDC}"/>
-    <hyperlink ref="D122" r:id="rId43" xr:uid="{06A49B5F-18D2-4194-B6BE-C5E53216286C}"/>
-    <hyperlink ref="D124" r:id="rId44" xr:uid="{EE6DB360-2C6A-405E-84A8-A14E4246691A}"/>
-    <hyperlink ref="D125" r:id="rId45" xr:uid="{611AAE49-03C7-4272-92BA-1D82DD00ABA0}"/>
-    <hyperlink ref="D126" r:id="rId46" xr:uid="{3C510822-3078-42E7-AA6B-A978B51D71FC}"/>
-    <hyperlink ref="D127" r:id="rId47" xr:uid="{816667D2-FB85-4643-915D-32EE968CE85D}"/>
-    <hyperlink ref="D128" r:id="rId48" xr:uid="{B4AF7EA7-E3FC-4535-AE8E-7D345B52CFEF}"/>
-    <hyperlink ref="D129" r:id="rId49" xr:uid="{9A647C7F-61B5-468F-9424-C7DC69F0CFE3}"/>
-    <hyperlink ref="D130" r:id="rId50" xr:uid="{1CD529FD-6D43-45FE-AB26-0D4E307F9F4D}"/>
-    <hyperlink ref="D131" r:id="rId51" xr:uid="{0E76F4C9-3100-4749-959F-C4775C856AEB}"/>
-    <hyperlink ref="D133" r:id="rId52" xr:uid="{8612E009-149C-4FB7-9695-5AC7C6309FFE}"/>
-    <hyperlink ref="D134" r:id="rId53" xr:uid="{1B270D60-20F0-403F-8E22-15866550E78F}"/>
-    <hyperlink ref="D135" r:id="rId54" xr:uid="{5D3615B2-5D7C-4A30-AB76-ED386FCB9B7F}"/>
-    <hyperlink ref="D136" r:id="rId55" xr:uid="{18A5D68C-5EB4-4F6A-96BD-81D3D74873B6}"/>
-    <hyperlink ref="D137" r:id="rId56" xr:uid="{EEE8FDDF-5C21-41B6-B36B-CD947FCA7390}"/>
-    <hyperlink ref="D139" r:id="rId57" xr:uid="{6C9E68A3-F2EE-40F9-BA75-2BF778DBEF68}"/>
-    <hyperlink ref="D140" r:id="rId58" xr:uid="{58FCA9FF-8337-46C4-A215-48B67CC4A6D4}"/>
-    <hyperlink ref="D141" r:id="rId59" xr:uid="{5FD57CD4-6395-4F95-8CC2-FDD9538B43B9}"/>
-    <hyperlink ref="D142" r:id="rId60" xr:uid="{EBB078FF-DA37-4258-A8C5-827C6E3D33C8}"/>
-    <hyperlink ref="D144" r:id="rId61" xr:uid="{D165CE25-ED7C-4A35-9C2D-553A4499E885}"/>
-    <hyperlink ref="D158" r:id="rId62" xr:uid="{C19F391F-3A57-4B55-AC57-CA3ABAB89520}"/>
-    <hyperlink ref="D163" r:id="rId63" xr:uid="{6A1F89C6-649A-4A30-AF61-060E2D3F3073}"/>
-    <hyperlink ref="D164" r:id="rId64" xr:uid="{1B53B12A-F22A-411B-9A68-27C34DB6FEC1}"/>
-    <hyperlink ref="D165" r:id="rId65" xr:uid="{13DF9FC3-4553-4B6A-AEA9-FDE3DCE63DF4}"/>
-    <hyperlink ref="D169" r:id="rId66" xr:uid="{1E498891-654F-414F-BC3C-4334253A7EFE}"/>
-    <hyperlink ref="D183" r:id="rId67" xr:uid="{C4668B94-8FCE-44ED-899A-0A4BF019EDA8}"/>
-    <hyperlink ref="D184" r:id="rId68" xr:uid="{62D17AD3-A754-4683-8D50-D38A23F8127A}"/>
-    <hyperlink ref="D185" r:id="rId69" xr:uid="{C398AF68-243E-4E0B-94F0-6D48A8C52009}"/>
-    <hyperlink ref="D186" r:id="rId70" xr:uid="{2384D44E-5AE6-403A-A8BD-475D18E644F7}"/>
-    <hyperlink ref="D189" r:id="rId71" xr:uid="{7A2E2DF7-1CAA-4447-BDD2-E5002CE4D648}"/>
-    <hyperlink ref="D192" r:id="rId72" xr:uid="{73970DDF-7CCE-4418-8481-99EBC6296D9A}"/>
-    <hyperlink ref="D194" r:id="rId73" xr:uid="{2BC5BDCD-C4DE-4A16-AE87-0ACCD0ADDCF6}"/>
-    <hyperlink ref="D195" r:id="rId74" xr:uid="{5557BF0D-F7C0-46F0-8962-1B37B5790392}"/>
-    <hyperlink ref="D197" r:id="rId75" xr:uid="{4AC262AF-D786-4D2E-BCCE-0A0A82B37109}"/>
-    <hyperlink ref="D198" r:id="rId76" xr:uid="{3209F11E-5B2B-41EC-81E5-BF0188C535EB}"/>
-    <hyperlink ref="D199" r:id="rId77" xr:uid="{81E605B9-E311-4C98-8FD6-0A66C5680DEE}"/>
-    <hyperlink ref="D201" r:id="rId78" xr:uid="{C3D2A0EA-7A20-4AB8-B8CB-7EAFD01FABB9}"/>
-    <hyperlink ref="D202" r:id="rId79" xr:uid="{19A8870B-2309-4E1B-A3B6-FB7396A14A61}"/>
-    <hyperlink ref="D203" r:id="rId80" xr:uid="{71A8098A-21BF-4FA9-B7E2-B99A4E2F355C}"/>
-    <hyperlink ref="D204" r:id="rId81" xr:uid="{80A17B3C-8C33-402D-B213-C5D1DAF96641}"/>
-    <hyperlink ref="D205" r:id="rId82" xr:uid="{5C3D0F5C-1EF1-48F5-B43C-329E49865FAC}"/>
-    <hyperlink ref="D212" r:id="rId83" xr:uid="{B324F1DC-6567-4985-A61B-C715C04DEA05}"/>
-    <hyperlink ref="D213" r:id="rId84" xr:uid="{5D5DBF06-C682-4164-A279-FB9D5054E0E2}"/>
-    <hyperlink ref="D215" r:id="rId85" xr:uid="{4B3FED82-B528-491F-B893-B888581F240C}"/>
-    <hyperlink ref="D216" r:id="rId86" xr:uid="{62A4B741-7EC2-4800-A78B-8B8F92EFDF84}"/>
-    <hyperlink ref="D217" r:id="rId87" xr:uid="{620C6CA7-C39A-4144-807F-956ABEED21A6}"/>
-    <hyperlink ref="D219" r:id="rId88" xr:uid="{CD41D47A-3914-4ED6-B35A-737AF84E149E}"/>
-    <hyperlink ref="D229" r:id="rId89" xr:uid="{7EAADC35-AE58-453F-B25C-410B6E4578D8}"/>
-    <hyperlink ref="D240" r:id="rId90" xr:uid="{795028FB-6771-4241-B715-C0EB04EE2D30}"/>
-    <hyperlink ref="D241" r:id="rId91" xr:uid="{7A3F4265-DFD4-4419-8906-3F6C426B157F}"/>
-    <hyperlink ref="D242" r:id="rId92" xr:uid="{1B621A29-8AA4-4399-8490-D1044F7595F5}"/>
-    <hyperlink ref="D243" r:id="rId93" xr:uid="{5F99EC69-2304-4A80-94A9-7B7083992E8B}"/>
-    <hyperlink ref="D244" r:id="rId94" xr:uid="{CC4F2FE8-260E-4CCB-85C5-3B8602679732}"/>
-    <hyperlink ref="D249" r:id="rId95" xr:uid="{0348ED4E-6CAA-4972-B56A-5BC1A70D0BF8}"/>
-    <hyperlink ref="D263" r:id="rId96" display="https://goo.gl/9o5TnZ" xr:uid="{73CD26EA-BE10-4594-858C-AF50E729A668}"/>
-    <hyperlink ref="D265" r:id="rId97" xr:uid="{45B4ECAC-E205-49A7-BCD7-AF687B9897E7}"/>
-    <hyperlink ref="D266" r:id="rId98" xr:uid="{99BE58E5-3D9D-4864-A642-3C950F491BD9}"/>
-    <hyperlink ref="D280" r:id="rId99" display="https://goo.gl/9o5TnZ" xr:uid="{480E6ED5-711A-40B7-8CF7-1DE57FD883D2}"/>
-    <hyperlink ref="D281" r:id="rId100" display="https://goo.gl/9o5TnZ" xr:uid="{9DFC4A66-9E20-4918-AE58-FC89822CD95C}"/>
-    <hyperlink ref="D282" r:id="rId101" display="https://goo.gl/9o5TnZ" xr:uid="{115FC4ED-650D-4F7A-9DA5-E964FDD7E177}"/>
-    <hyperlink ref="D283" r:id="rId102" display="https://goo.gl/9o5TnZ" xr:uid="{FB434617-3240-4F31-ABA9-7D479023D665}"/>
-    <hyperlink ref="D284" r:id="rId103" display="https://goo.gl/9o5TnZ" xr:uid="{6FA2519A-BD9B-4E33-849D-DF4904558DA1}"/>
-    <hyperlink ref="D286" r:id="rId104" display="https://goo.gl/9o5TnZ" xr:uid="{AB348001-4406-4A7A-8402-4DD8425F66EF}"/>
-    <hyperlink ref="D287" r:id="rId105" display="https://goo.gl/9o5TnZ" xr:uid="{4D2840C8-46B4-4EA3-B184-31A93D63F27F}"/>
-    <hyperlink ref="D288" r:id="rId106" display="https://goo.gl/9o5TnZ" xr:uid="{DDCA4DB3-9B86-4FC8-847B-3C70AA02296A}"/>
-    <hyperlink ref="D289" r:id="rId107" xr:uid="{F15CC5D2-B226-441E-A966-3FD83AFE37DA}"/>
+    <hyperlink ref="D18" r:id="rId1" xr:uid="{6A3418C9-F5A2-486D-B346-8EA8AFB05F13}"/>
+    <hyperlink ref="D19" r:id="rId2" xr:uid="{E4210996-A81A-445D-9C7C-B9CF9DBF2C74}"/>
+    <hyperlink ref="D20" r:id="rId3" xr:uid="{6AE6C553-76D2-4C59-B9DB-DF47566DE97F}"/>
+    <hyperlink ref="D21" r:id="rId4" xr:uid="{D4F2A55B-0078-48EB-A599-1EA9ACC43BC8}"/>
+    <hyperlink ref="D22" r:id="rId5" xr:uid="{759C3F39-82D7-4D2C-A18B-C47790472B25}"/>
+    <hyperlink ref="D23" r:id="rId6" xr:uid="{E458E809-475E-41EC-BA4B-7A1CDED33C8A}"/>
+    <hyperlink ref="D24" r:id="rId7" xr:uid="{A9D3C867-92BF-4C94-9C92-18ED3BDF1D61}"/>
+    <hyperlink ref="D25" r:id="rId8" xr:uid="{C4BF33BC-8CB4-45EF-AE7E-CACB3EDBFB69}"/>
+    <hyperlink ref="D26" r:id="rId9" xr:uid="{224F3EEE-3FEE-4135-9609-2A166FE18FCC}"/>
+    <hyperlink ref="D27" r:id="rId10" xr:uid="{D8CA7CD3-EDB2-4704-BCD2-32474C679DDF}"/>
+    <hyperlink ref="D28" r:id="rId11" xr:uid="{3C5D3CFE-C3D4-42F5-9C12-37D6984DE4DC}"/>
+    <hyperlink ref="D30" r:id="rId12" xr:uid="{463DA0EE-8D49-4205-88E2-7D431CCB3847}"/>
+    <hyperlink ref="D31" r:id="rId13" xr:uid="{892DBE88-85BA-4BA4-8BE6-6BF725CDCCA1}"/>
+    <hyperlink ref="D32" r:id="rId14" xr:uid="{40D7750F-7EE6-4610-A115-9DE286EFA9E5}"/>
+    <hyperlink ref="D33" r:id="rId15" xr:uid="{3E0214E6-2517-4AD2-94F7-D796B3811A0D}"/>
+    <hyperlink ref="D34" r:id="rId16" xr:uid="{96613EB2-60B0-452A-8FE3-B75198FE2E04}"/>
+    <hyperlink ref="D38" r:id="rId17" xr:uid="{B65CB163-3ABD-4A62-8039-5062D2DA2EA7}"/>
+    <hyperlink ref="D39" r:id="rId18" xr:uid="{89CCABFC-3691-4BC2-8602-C0767E2AF3E1}"/>
+    <hyperlink ref="D40" r:id="rId19" xr:uid="{51F87DC0-D0E2-496B-A28D-91BA52D68213}"/>
+    <hyperlink ref="D44" r:id="rId20" xr:uid="{E8D2B75E-B5A2-4E0B-B03C-1CF48C071664}"/>
+    <hyperlink ref="D46" r:id="rId21" xr:uid="{2FD60176-FF06-46F0-AB26-C76215743B8A}"/>
+    <hyperlink ref="D50" r:id="rId22" xr:uid="{3F79393E-C482-4690-94D9-5B506D6F60E5}"/>
+    <hyperlink ref="D51" r:id="rId23" xr:uid="{77056D57-31F8-44F6-84EF-E83307AEFC94}"/>
+    <hyperlink ref="D53" r:id="rId24" xr:uid="{FBA49E90-FEA8-455D-BAFB-A4C68A4A9A07}"/>
+    <hyperlink ref="D55" r:id="rId25" xr:uid="{8593C257-D66C-4AEE-A7A0-CDD815C0763E}"/>
+    <hyperlink ref="D64" r:id="rId26" xr:uid="{34A6F1EC-5836-40B6-8405-8BEEC347CC88}"/>
+    <hyperlink ref="D65" r:id="rId27" xr:uid="{93410412-00BD-4BBE-847C-A5F681B711BD}"/>
+    <hyperlink ref="D66" r:id="rId28" xr:uid="{5787538F-AB69-492F-B13D-F371DC97E3D1}"/>
+    <hyperlink ref="D67" r:id="rId29" xr:uid="{7675EA97-D569-4C3C-8D12-3C9F106AFBBC}"/>
+    <hyperlink ref="D70" r:id="rId30" xr:uid="{88FB2362-1624-4182-BEE0-D874DA489403}"/>
+    <hyperlink ref="D77" r:id="rId31" xr:uid="{D7F5D6C7-0524-4289-93E6-3166D25DA756}"/>
+    <hyperlink ref="D86" r:id="rId32" xr:uid="{68B71465-AFD1-47B1-A46F-408FD7FDA55C}"/>
+    <hyperlink ref="D94" r:id="rId33" xr:uid="{FA5B5BDD-6CD9-438F-8075-C1AE2BFCAACD}"/>
+    <hyperlink ref="D95" r:id="rId34" xr:uid="{69139EF4-68EE-493D-B42F-08F1E1CB38B9}"/>
+    <hyperlink ref="D96" r:id="rId35" xr:uid="{130DECEE-A6B2-4725-853A-F137C941E792}"/>
+    <hyperlink ref="D107" r:id="rId36" xr:uid="{1D851941-100A-4A7F-B94E-05725620A3E6}"/>
+    <hyperlink ref="D108" r:id="rId37" xr:uid="{1C46177C-616A-4439-A904-45089FEBB851}"/>
+    <hyperlink ref="D110" r:id="rId38" xr:uid="{5AFBB7A2-A058-4E16-B5CF-547E194B79B6}"/>
+    <hyperlink ref="D111" r:id="rId39" xr:uid="{6A3F99DC-543D-4385-8B86-5C18CBBC1677}"/>
+    <hyperlink ref="D130" r:id="rId40" xr:uid="{3E142412-002C-4C66-9965-630266C01EDC}"/>
+    <hyperlink ref="D131" r:id="rId41" xr:uid="{06A49B5F-18D2-4194-B6BE-C5E53216286C}"/>
+    <hyperlink ref="D133" r:id="rId42" xr:uid="{EE6DB360-2C6A-405E-84A8-A14E4246691A}"/>
+    <hyperlink ref="D134" r:id="rId43" xr:uid="{611AAE49-03C7-4272-92BA-1D82DD00ABA0}"/>
+    <hyperlink ref="D135" r:id="rId44" xr:uid="{3C510822-3078-42E7-AA6B-A978B51D71FC}"/>
+    <hyperlink ref="D136" r:id="rId45" xr:uid="{816667D2-FB85-4643-915D-32EE968CE85D}"/>
+    <hyperlink ref="D137" r:id="rId46" xr:uid="{B4AF7EA7-E3FC-4535-AE8E-7D345B52CFEF}"/>
+    <hyperlink ref="D138" r:id="rId47" xr:uid="{9A647C7F-61B5-468F-9424-C7DC69F0CFE3}"/>
+    <hyperlink ref="D139" r:id="rId48" xr:uid="{1CD529FD-6D43-45FE-AB26-0D4E307F9F4D}"/>
+    <hyperlink ref="D140" r:id="rId49" xr:uid="{0E76F4C9-3100-4749-959F-C4775C856AEB}"/>
+    <hyperlink ref="D142" r:id="rId50" xr:uid="{8612E009-149C-4FB7-9695-5AC7C6309FFE}"/>
+    <hyperlink ref="D143" r:id="rId51" xr:uid="{1B270D60-20F0-403F-8E22-15866550E78F}"/>
+    <hyperlink ref="D144" r:id="rId52" xr:uid="{5D3615B2-5D7C-4A30-AB76-ED386FCB9B7F}"/>
+    <hyperlink ref="D145" r:id="rId53" xr:uid="{18A5D68C-5EB4-4F6A-96BD-81D3D74873B6}"/>
+    <hyperlink ref="D146" r:id="rId54" xr:uid="{EEE8FDDF-5C21-41B6-B36B-CD947FCA7390}"/>
+    <hyperlink ref="D148" r:id="rId55" xr:uid="{6C9E68A3-F2EE-40F9-BA75-2BF778DBEF68}"/>
+    <hyperlink ref="D149" r:id="rId56" xr:uid="{58FCA9FF-8337-46C4-A215-48B67CC4A6D4}"/>
+    <hyperlink ref="D150" r:id="rId57" xr:uid="{5FD57CD4-6395-4F95-8CC2-FDD9538B43B9}"/>
+    <hyperlink ref="D151" r:id="rId58" xr:uid="{EBB078FF-DA37-4258-A8C5-827C6E3D33C8}"/>
+    <hyperlink ref="D153" r:id="rId59" xr:uid="{D165CE25-ED7C-4A35-9C2D-553A4499E885}"/>
+    <hyperlink ref="D167" r:id="rId60" xr:uid="{C19F391F-3A57-4B55-AC57-CA3ABAB89520}"/>
+    <hyperlink ref="D172" r:id="rId61" xr:uid="{6A1F89C6-649A-4A30-AF61-060E2D3F3073}"/>
+    <hyperlink ref="D173" r:id="rId62" xr:uid="{1B53B12A-F22A-411B-9A68-27C34DB6FEC1}"/>
+    <hyperlink ref="D174" r:id="rId63" xr:uid="{13DF9FC3-4553-4B6A-AEA9-FDE3DCE63DF4}"/>
+    <hyperlink ref="D178" r:id="rId64" xr:uid="{1E498891-654F-414F-BC3C-4334253A7EFE}"/>
+    <hyperlink ref="D192" r:id="rId65" xr:uid="{C4668B94-8FCE-44ED-899A-0A4BF019EDA8}"/>
+    <hyperlink ref="D193" r:id="rId66" xr:uid="{62D17AD3-A754-4683-8D50-D38A23F8127A}"/>
+    <hyperlink ref="D194" r:id="rId67" xr:uid="{C398AF68-243E-4E0B-94F0-6D48A8C52009}"/>
+    <hyperlink ref="D195" r:id="rId68" xr:uid="{2384D44E-5AE6-403A-A8BD-475D18E644F7}"/>
+    <hyperlink ref="D198" r:id="rId69" xr:uid="{7A2E2DF7-1CAA-4447-BDD2-E5002CE4D648}"/>
+    <hyperlink ref="D201" r:id="rId70" xr:uid="{73970DDF-7CCE-4418-8481-99EBC6296D9A}"/>
+    <hyperlink ref="D203" r:id="rId71" xr:uid="{2BC5BDCD-C4DE-4A16-AE87-0ACCD0ADDCF6}"/>
+    <hyperlink ref="D204" r:id="rId72" xr:uid="{5557BF0D-F7C0-46F0-8962-1B37B5790392}"/>
+    <hyperlink ref="D206" r:id="rId73" xr:uid="{4AC262AF-D786-4D2E-BCCE-0A0A82B37109}"/>
+    <hyperlink ref="D207" r:id="rId74" xr:uid="{3209F11E-5B2B-41EC-81E5-BF0188C535EB}"/>
+    <hyperlink ref="D208" r:id="rId75" xr:uid="{81E605B9-E311-4C98-8FD6-0A66C5680DEE}"/>
+    <hyperlink ref="D210" r:id="rId76" xr:uid="{C3D2A0EA-7A20-4AB8-B8CB-7EAFD01FABB9}"/>
+    <hyperlink ref="D211" r:id="rId77" xr:uid="{19A8870B-2309-4E1B-A3B6-FB7396A14A61}"/>
+    <hyperlink ref="D212" r:id="rId78" xr:uid="{71A8098A-21BF-4FA9-B7E2-B99A4E2F355C}"/>
+    <hyperlink ref="D213" r:id="rId79" xr:uid="{80A17B3C-8C33-402D-B213-C5D1DAF96641}"/>
+    <hyperlink ref="D214" r:id="rId80" xr:uid="{5C3D0F5C-1EF1-48F5-B43C-329E49865FAC}"/>
+    <hyperlink ref="D221" r:id="rId81" xr:uid="{B324F1DC-6567-4985-A61B-C715C04DEA05}"/>
+    <hyperlink ref="D222" r:id="rId82" xr:uid="{5D5DBF06-C682-4164-A279-FB9D5054E0E2}"/>
+    <hyperlink ref="D224" r:id="rId83" xr:uid="{4B3FED82-B528-491F-B893-B888581F240C}"/>
+    <hyperlink ref="D225" r:id="rId84" xr:uid="{62A4B741-7EC2-4800-A78B-8B8F92EFDF84}"/>
+    <hyperlink ref="D226" r:id="rId85" xr:uid="{620C6CA7-C39A-4144-807F-956ABEED21A6}"/>
+    <hyperlink ref="D228" r:id="rId86" xr:uid="{CD41D47A-3914-4ED6-B35A-737AF84E149E}"/>
+    <hyperlink ref="D238" r:id="rId87" xr:uid="{7EAADC35-AE58-453F-B25C-410B6E4578D8}"/>
+    <hyperlink ref="D249" r:id="rId88" xr:uid="{795028FB-6771-4241-B715-C0EB04EE2D30}"/>
+    <hyperlink ref="D250" r:id="rId89" xr:uid="{7A3F4265-DFD4-4419-8906-3F6C426B157F}"/>
+    <hyperlink ref="D251" r:id="rId90" xr:uid="{1B621A29-8AA4-4399-8490-D1044F7595F5}"/>
+    <hyperlink ref="D252" r:id="rId91" xr:uid="{5F99EC69-2304-4A80-94A9-7B7083992E8B}"/>
+    <hyperlink ref="D253" r:id="rId92" xr:uid="{CC4F2FE8-260E-4CCB-85C5-3B8602679732}"/>
+    <hyperlink ref="D258" r:id="rId93" xr:uid="{0348ED4E-6CAA-4972-B56A-5BC1A70D0BF8}"/>
+    <hyperlink ref="D272" r:id="rId94" display="https://goo.gl/9o5TnZ" xr:uid="{73CD26EA-BE10-4594-858C-AF50E729A668}"/>
+    <hyperlink ref="D274" r:id="rId95" xr:uid="{45B4ECAC-E205-49A7-BCD7-AF687B9897E7}"/>
+    <hyperlink ref="D275" r:id="rId96" xr:uid="{99BE58E5-3D9D-4864-A642-3C950F491BD9}"/>
+    <hyperlink ref="D289" r:id="rId97" display="https://goo.gl/9o5TnZ" xr:uid="{480E6ED5-711A-40B7-8CF7-1DE57FD883D2}"/>
+    <hyperlink ref="D290" r:id="rId98" display="https://goo.gl/9o5TnZ" xr:uid="{9DFC4A66-9E20-4918-AE58-FC89822CD95C}"/>
+    <hyperlink ref="D291" r:id="rId99" display="https://goo.gl/9o5TnZ" xr:uid="{115FC4ED-650D-4F7A-9DA5-E964FDD7E177}"/>
+    <hyperlink ref="D292" r:id="rId100" display="https://goo.gl/9o5TnZ" xr:uid="{FB434617-3240-4F31-ABA9-7D479023D665}"/>
+    <hyperlink ref="D293" r:id="rId101" display="https://goo.gl/9o5TnZ" xr:uid="{6FA2519A-BD9B-4E33-849D-DF4904558DA1}"/>
+    <hyperlink ref="D295" r:id="rId102" display="https://goo.gl/9o5TnZ" xr:uid="{AB348001-4406-4A7A-8402-4DD8425F66EF}"/>
+    <hyperlink ref="D296" r:id="rId103" display="https://goo.gl/9o5TnZ" xr:uid="{4D2840C8-46B4-4EA3-B184-31A93D63F27F}"/>
+    <hyperlink ref="D297" r:id="rId104" display="https://goo.gl/9o5TnZ" xr:uid="{DDCA4DB3-9B86-4FC8-847B-3C70AA02296A}"/>
+    <hyperlink ref="D298" r:id="rId105" xr:uid="{F15CC5D2-B226-441E-A966-3FD83AFE37DA}"/>
+    <hyperlink ref="D8" r:id="rId106" xr:uid="{8A54130D-450C-4AD0-9773-E0773C80AE44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId107"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CE8975-C0D4-4DC9-A44E-18D4BF24438F}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A32" sqref="A32:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7325,845 +7460,811 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>863</v>
+        <v>1002</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>793</v>
+        <v>1003</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>864</v>
+        <v>1004</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
+        <v>796</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>862</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>863</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>798</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>864</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>799</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>865</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>800</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>871</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>801</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>872</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>802</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>873</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>803</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>874</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>804</v>
-      </c>
       <c r="B13" s="24" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>805</v>
-      </c>
-      <c r="B14" s="25"/>
+        <v>801</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>867</v>
+      </c>
       <c r="C14" s="18" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>806</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>876</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="B15" s="25"/>
       <c r="C15" s="18" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
+        <v>804</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>869</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>805</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>870</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>806</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>807</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>872</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
         <v>808</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>878</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="B21" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
         <v>809</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>879</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="B22" s="24" t="s">
+        <v>874</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
         <v>810</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>880</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="B23" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
         <v>811</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>881</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
-        <v>812</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>882</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
-        <v>813</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>883</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>814</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>884</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
-        <v>815</v>
-      </c>
       <c r="B24" s="24" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="C29" s="18"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
+        <v>817</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>882</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
+        <v>818</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>883</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
+        <v>819</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
+        <v>820</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>885</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
         <v>821</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>891</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+      <c r="B34" s="24" t="s">
+        <v>886</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
         <v>822</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>892</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
+      <c r="B35" s="24" t="s">
+        <v>887</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
         <v>823</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>893</v>
-      </c>
-      <c r="C32" s="18"/>
-    </row>
-    <row r="33" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
-        <v>824</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>894</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
-        <v>825</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>895</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
-        <v>826</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>896</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
-        <v>827</v>
-      </c>
       <c r="B36" s="24" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
+        <v>824</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="23" t="s">
+        <v>826</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="s">
+        <v>827</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>892</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
         <v>828</v>
       </c>
-      <c r="B37" s="24" t="s">
-        <v>898</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23" t="s">
+      <c r="B41" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="s">
         <v>829</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>899</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23" t="s">
-        <v>830</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>900</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
-        <v>831</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>901</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
-        <v>832</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>902</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
-        <v>833</v>
-      </c>
       <c r="B42" s="24" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>895</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="23" t="s">
+        <v>831</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>897</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="23" t="s">
+        <v>833</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>898</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="23" t="s">
         <v>834</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B47" s="24" t="s">
+        <v>899</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="23" t="s">
+        <v>835</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>900</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="23" t="s">
+        <v>836</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>902</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>903</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="B52" s="24" t="s">
         <v>904</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="23" t="s">
-        <v>835</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>905</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="23" t="s">
-        <v>836</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>906</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="23" t="s">
-        <v>837</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>907</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
-        <v>838</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>908</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="23" t="s">
-        <v>839</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>909</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
-        <v>840</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>910</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
-        <v>841</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>911</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="23" t="s">
-        <v>842</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>912</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
-        <v>843</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>913</v>
-      </c>
       <c r="C52" s="18" t="s">
-        <v>945</v>
+        <v>967</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="23" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="23" t="s">
+        <v>842</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>907</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="23" t="s">
+        <v>843</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>908</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>909</v>
+      </c>
+      <c r="C57" s="18"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="23" t="s">
+        <v>845</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>910</v>
+      </c>
+      <c r="C58" s="18"/>
+    </row>
+    <row r="59" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="23" t="s">
         <v>846</v>
       </c>
-      <c r="B55" s="24" t="s">
-        <v>916</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="23" t="s">
+      <c r="B59" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="23" t="s">
         <v>847</v>
       </c>
-      <c r="B56" s="24" t="s">
-        <v>917</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
+      <c r="B60" s="24" t="s">
+        <v>912</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="23" t="s">
         <v>848</v>
       </c>
-      <c r="B57" s="24" t="s">
-        <v>918</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="23" t="s">
-        <v>849</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>919</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="23" t="s">
-        <v>850</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>920</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="23" t="s">
-        <v>851</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>921</v>
-      </c>
-      <c r="C60" s="18"/>
-    </row>
-    <row r="61" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="23" t="s">
-        <v>852</v>
-      </c>
       <c r="B61" s="24" t="s">
-        <v>922</v>
-      </c>
-      <c r="C61" s="18"/>
+        <v>913</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>974</v>
+      </c>
     </row>
     <row r="62" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="23" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="23" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>925</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>988</v>
+        <v>916</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="23" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="23" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>927</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>990</v>
+        <v>918</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="23" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="23" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="23" t="s">
-        <v>860</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>930</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="23" t="s">
-        <v>861</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>931</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="23" t="s">
-        <v>862</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>932</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>989</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" display="http://die.net/" xr:uid="{B1003878-D444-49ED-AC37-F0B6042495B7}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{91E47FF5-EB66-4B05-BC4B-CFDEFF9A5F39}"/>
-    <hyperlink ref="B3" r:id="rId3" display="http://www.linguee.es/‎" xr:uid="{D07CB4CB-67CD-4317-81CA-F37A8CD34EB0}"/>
-    <hyperlink ref="B4" r:id="rId4" display="http://www.linux-mag.com/‎" xr:uid="{292C85AB-A1EC-45C9-849B-73983C61D2FA}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{12A2869D-8913-4FCB-AF1A-683DF6549AAE}"/>
-    <hyperlink ref="B6" r:id="rId6" display="http://www.macworld.com/‎" xr:uid="{C7CF4A0E-D47C-46D7-B382-61B2B3D0045A}"/>
-    <hyperlink ref="B7" r:id="rId7" display="http://www.pcmag.com/‎" xr:uid="{AE0C2CD3-8DC7-4071-A627-1D261250A6E5}"/>
-    <hyperlink ref="B8" r:id="rId8" display="http://www.pcworld.com/" xr:uid="{3CF1501E-22C7-461D-8825-3AA57046AE67}"/>
-    <hyperlink ref="B9" r:id="rId9" display="http://www.urbandictionary.com/‎" xr:uid="{72E70F23-7C26-41CE-9394-AF7D71A2BA4B}"/>
-    <hyperlink ref="B10" r:id="rId10" display="http://www.wordreference.com/es/‎" xr:uid="{2BC02C63-6C0A-4232-A5BB-533796F2A07D}"/>
-    <hyperlink ref="B11" r:id="rId11" xr:uid="{C71DDDB4-3377-43D4-96AF-981F6A3A9D5A}"/>
-    <hyperlink ref="B12" r:id="rId12" xr:uid="{B3134AD6-61C0-4DA7-9CCB-8AA5C51444B1}"/>
-    <hyperlink ref="B13" r:id="rId13" xr:uid="{0D56E06C-A4F7-4AD4-A013-37C467035BB3}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{72497564-52AC-48A1-9AB6-018EE55C5889}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{2C8F014B-0006-4201-97E5-0A0ECE250039}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{CFD99562-7F63-4023-B1F6-9D70E3FF55E9}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{BE5D68EA-D64F-49E6-B75C-C7522E184F40}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{C08A58AA-6190-49E2-9DE8-3E309D5479FA}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{3D75F866-D063-4066-9F1A-169E525210E8}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{C95C2FC4-C915-4E7B-9A8A-17CF4E93A12F}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{645C2F8D-3D86-443B-93D5-DB154FAF5C33}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{41ED0721-DE88-4D48-A213-26CC63F0D5F4}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{7D83DEF3-962C-4B1B-98DC-7CB8AF72F697}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{63AFC6FA-B93A-405C-A26A-790962DC62CA}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{8FC2AC11-D7B0-46F1-B7E3-B422C89436F5}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{A422F462-095B-4BC5-B012-1115FAB64D3C}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{42DD2CA5-A43B-4DF0-95FF-2F15BFF81BA6}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{FFA9C732-A0B2-4E42-A5EA-A618A1EE1391}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{71357493-D9E7-417F-87F2-AFE644256EB0}"/>
-    <hyperlink ref="B31" r:id="rId30" display="https://goo.gl/aZ8ywd" xr:uid="{9FD3FCFD-AEA4-44F5-B5EA-067695901D18}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{E9481E75-8F8F-4ABB-AFB9-27CDF6BB1AFB}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{347E55A9-FC89-4311-826A-4BE5FC8BA5A3}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{C927B8D2-0575-4108-B2D4-36825462DFE8}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{C782E726-68FA-424E-A66A-0E19B70ABF3A}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{4E1D6CAB-BE4E-43E7-8458-3F5E693255C3}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{F2436C93-ADE2-4786-8E55-1CD3A960991C}"/>
-    <hyperlink ref="B38" r:id="rId37" display="https://codepen.io/" xr:uid="{00240918-A0A6-4A38-9DBD-5BD14ECD15D3}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{14565CA3-A046-4545-AABE-51398E361655}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{4CB13BA9-17BE-4A6D-976B-062C5B2DEF3D}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{ACE3E20E-1D7F-4E57-A516-9562546BDED2}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{78903DFC-9B4B-4D34-A757-3CAF943C5636}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{EAA0236A-B50B-44EE-BFDA-147056E3BB41}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{ED6658A2-FAF0-4B3B-8312-AF168FC3AC82}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{6A1DF0BA-10D9-4685-88BB-8EDC0E1329BC}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{20C324D8-F4A7-4B4D-A544-5BF00A25420E}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{CA9E323E-6F01-40C4-A7F6-1BE365DCF8CA}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{D18FB2C8-E986-418D-8B5F-19D48FB8C117}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{35714EB5-225E-4093-AE35-3BC41451C759}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{259AB1E6-A914-45E8-9660-809687A73FA7}"/>
-    <hyperlink ref="B51" r:id="rId50" xr:uid="{EABEBD48-BA41-4811-A06A-403B2D05D890}"/>
-    <hyperlink ref="B52" r:id="rId51" xr:uid="{C8B8EC96-EDF8-4BBC-BA0C-AA8CDED71A85}"/>
-    <hyperlink ref="B53" r:id="rId52" xr:uid="{472482C0-4417-453C-8698-27DF18751D79}"/>
-    <hyperlink ref="B54" r:id="rId53" xr:uid="{82DC4071-F05E-42AC-B7D3-7D53843551D1}"/>
-    <hyperlink ref="B55" r:id="rId54" xr:uid="{C6274D7B-C1B8-4B0F-AC98-150D660F82F6}"/>
-    <hyperlink ref="B56" r:id="rId55" xr:uid="{30105453-7590-47B6-9BE6-5B2A68A9B378}"/>
-    <hyperlink ref="B57" r:id="rId56" xr:uid="{4E5C2707-BD27-4015-AA3B-8152CCD6FF14}"/>
-    <hyperlink ref="B58" r:id="rId57" xr:uid="{DD60ABB2-8852-4317-B267-EF350CBE7CFC}"/>
-    <hyperlink ref="B59" r:id="rId58" xr:uid="{60899D72-E733-44E8-92D1-E21B40879F83}"/>
-    <hyperlink ref="B60" r:id="rId59" xr:uid="{D98C4E96-18EA-4AF4-A39B-1228A84A718E}"/>
-    <hyperlink ref="B61" r:id="rId60" xr:uid="{D4640477-2800-4A96-86FC-C275275DB08A}"/>
-    <hyperlink ref="B62" r:id="rId61" xr:uid="{6FE8F4B2-69D4-48F7-9BF6-E2BE1B37DAF8}"/>
-    <hyperlink ref="B63" r:id="rId62" xr:uid="{3A10D79D-2C0A-4FD1-8C72-3BD5878B0F81}"/>
-    <hyperlink ref="B64" r:id="rId63" xr:uid="{9AFAEAFC-B4A1-4049-BD5C-C3F84569E568}"/>
-    <hyperlink ref="B65" r:id="rId64" xr:uid="{03B62E20-754A-431B-915C-701EC23EB90C}"/>
-    <hyperlink ref="B66" r:id="rId65" xr:uid="{5A97F98B-B190-46D1-869F-AA3D3A98274A}"/>
-    <hyperlink ref="B67" r:id="rId66" xr:uid="{4663E0FA-674B-4ACF-86D8-8D6ABA564B6D}"/>
-    <hyperlink ref="B68" r:id="rId67" xr:uid="{FF5FB48D-9B8D-48FA-A0BD-CA6E8A5352AE}"/>
-    <hyperlink ref="B69" r:id="rId68" xr:uid="{11AED9A4-38D6-43C5-9DBC-FB527640A355}"/>
-    <hyperlink ref="B70" r:id="rId69" display="https://nakedsecurity.sophos.com/" xr:uid="{E719E00E-387F-423F-9335-B69607BB8B07}"/>
-    <hyperlink ref="B71" r:id="rId70" xr:uid="{9E7404C4-ABD3-4558-BE33-BAC58535C01E}"/>
+    <hyperlink ref="A22" r:id="rId1" display="http://die.net/" xr:uid="{B1003878-D444-49ED-AC37-F0B6042495B7}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{91E47FF5-EB66-4B05-BC4B-CFDEFF9A5F39}"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://www.linguee.es/‎" xr:uid="{D07CB4CB-67CD-4317-81CA-F37A8CD34EB0}"/>
+    <hyperlink ref="B5" r:id="rId4" display="http://www.linux-mag.com/‎" xr:uid="{292C85AB-A1EC-45C9-849B-73983C61D2FA}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{12A2869D-8913-4FCB-AF1A-683DF6549AAE}"/>
+    <hyperlink ref="B7" r:id="rId6" display="http://www.macworld.com/‎" xr:uid="{C7CF4A0E-D47C-46D7-B382-61B2B3D0045A}"/>
+    <hyperlink ref="B8" r:id="rId7" display="http://www.pcmag.com/‎" xr:uid="{AE0C2CD3-8DC7-4071-A627-1D261250A6E5}"/>
+    <hyperlink ref="B9" r:id="rId8" display="http://www.pcworld.com/" xr:uid="{3CF1501E-22C7-461D-8825-3AA57046AE67}"/>
+    <hyperlink ref="B10" r:id="rId9" display="http://www.urbandictionary.com/‎" xr:uid="{72E70F23-7C26-41CE-9394-AF7D71A2BA4B}"/>
+    <hyperlink ref="B11" r:id="rId10" display="http://www.wordreference.com/es/‎" xr:uid="{2BC02C63-6C0A-4232-A5BB-533796F2A07D}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{C71DDDB4-3377-43D4-96AF-981F6A3A9D5A}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{B3134AD6-61C0-4DA7-9CCB-8AA5C51444B1}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{0D56E06C-A4F7-4AD4-A013-37C467035BB3}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{72497564-52AC-48A1-9AB6-018EE55C5889}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{2C8F014B-0006-4201-97E5-0A0ECE250039}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{CFD99562-7F63-4023-B1F6-9D70E3FF55E9}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{BE5D68EA-D64F-49E6-B75C-C7522E184F40}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{C08A58AA-6190-49E2-9DE8-3E309D5479FA}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{3D75F866-D063-4066-9F1A-169E525210E8}"/>
+    <hyperlink ref="B22" r:id="rId20" xr:uid="{C95C2FC4-C915-4E7B-9A8A-17CF4E93A12F}"/>
+    <hyperlink ref="B23" r:id="rId21" xr:uid="{645C2F8D-3D86-443B-93D5-DB154FAF5C33}"/>
+    <hyperlink ref="B24" r:id="rId22" xr:uid="{41ED0721-DE88-4D48-A213-26CC63F0D5F4}"/>
+    <hyperlink ref="B25" r:id="rId23" xr:uid="{7D83DEF3-962C-4B1B-98DC-7CB8AF72F697}"/>
+    <hyperlink ref="B26" r:id="rId24" xr:uid="{63AFC6FA-B93A-405C-A26A-790962DC62CA}"/>
+    <hyperlink ref="B27" r:id="rId25" xr:uid="{8FC2AC11-D7B0-46F1-B7E3-B422C89436F5}"/>
+    <hyperlink ref="B28" r:id="rId26" xr:uid="{42DD2CA5-A43B-4DF0-95FF-2F15BFF81BA6}"/>
+    <hyperlink ref="B29" r:id="rId27" xr:uid="{FFA9C732-A0B2-4E42-A5EA-A618A1EE1391}"/>
+    <hyperlink ref="B30" r:id="rId28" xr:uid="{71357493-D9E7-417F-87F2-AFE644256EB0}"/>
+    <hyperlink ref="B31" r:id="rId29" display="https://goo.gl/aZ8ywd" xr:uid="{9FD3FCFD-AEA4-44F5-B5EA-067695901D18}"/>
+    <hyperlink ref="B32" r:id="rId30" xr:uid="{347E55A9-FC89-4311-826A-4BE5FC8BA5A3}"/>
+    <hyperlink ref="B33" r:id="rId31" xr:uid="{C927B8D2-0575-4108-B2D4-36825462DFE8}"/>
+    <hyperlink ref="B34" r:id="rId32" xr:uid="{C782E726-68FA-424E-A66A-0E19B70ABF3A}"/>
+    <hyperlink ref="B35" r:id="rId33" xr:uid="{4E1D6CAB-BE4E-43E7-8458-3F5E693255C3}"/>
+    <hyperlink ref="B36" r:id="rId34" xr:uid="{F2436C93-ADE2-4786-8E55-1CD3A960991C}"/>
+    <hyperlink ref="B37" r:id="rId35" display="https://codepen.io/" xr:uid="{00240918-A0A6-4A38-9DBD-5BD14ECD15D3}"/>
+    <hyperlink ref="B38" r:id="rId36" xr:uid="{14565CA3-A046-4545-AABE-51398E361655}"/>
+    <hyperlink ref="B39" r:id="rId37" xr:uid="{4CB13BA9-17BE-4A6D-976B-062C5B2DEF3D}"/>
+    <hyperlink ref="B40" r:id="rId38" xr:uid="{78903DFC-9B4B-4D34-A757-3CAF943C5636}"/>
+    <hyperlink ref="B41" r:id="rId39" xr:uid="{EAA0236A-B50B-44EE-BFDA-147056E3BB41}"/>
+    <hyperlink ref="B42" r:id="rId40" xr:uid="{ED6658A2-FAF0-4B3B-8312-AF168FC3AC82}"/>
+    <hyperlink ref="B43" r:id="rId41" xr:uid="{6A1DF0BA-10D9-4685-88BB-8EDC0E1329BC}"/>
+    <hyperlink ref="B44" r:id="rId42" xr:uid="{20C324D8-F4A7-4B4D-A544-5BF00A25420E}"/>
+    <hyperlink ref="B45" r:id="rId43" xr:uid="{CA9E323E-6F01-40C4-A7F6-1BE365DCF8CA}"/>
+    <hyperlink ref="B46" r:id="rId44" xr:uid="{D18FB2C8-E986-418D-8B5F-19D48FB8C117}"/>
+    <hyperlink ref="B47" r:id="rId45" xr:uid="{35714EB5-225E-4093-AE35-3BC41451C759}"/>
+    <hyperlink ref="B48" r:id="rId46" xr:uid="{259AB1E6-A914-45E8-9660-809687A73FA7}"/>
+    <hyperlink ref="B49" r:id="rId47" xr:uid="{EABEBD48-BA41-4811-A06A-403B2D05D890}"/>
+    <hyperlink ref="B50" r:id="rId48" xr:uid="{C8B8EC96-EDF8-4BBC-BA0C-AA8CDED71A85}"/>
+    <hyperlink ref="B51" r:id="rId49" xr:uid="{472482C0-4417-453C-8698-27DF18751D79}"/>
+    <hyperlink ref="B52" r:id="rId50" xr:uid="{82DC4071-F05E-42AC-B7D3-7D53843551D1}"/>
+    <hyperlink ref="B53" r:id="rId51" xr:uid="{30105453-7590-47B6-9BE6-5B2A68A9B378}"/>
+    <hyperlink ref="B54" r:id="rId52" xr:uid="{4E5C2707-BD27-4015-AA3B-8152CCD6FF14}"/>
+    <hyperlink ref="B55" r:id="rId53" xr:uid="{DD60ABB2-8852-4317-B267-EF350CBE7CFC}"/>
+    <hyperlink ref="B56" r:id="rId54" xr:uid="{60899D72-E733-44E8-92D1-E21B40879F83}"/>
+    <hyperlink ref="B57" r:id="rId55" xr:uid="{D98C4E96-18EA-4AF4-A39B-1228A84A718E}"/>
+    <hyperlink ref="B58" r:id="rId56" xr:uid="{D4640477-2800-4A96-86FC-C275275DB08A}"/>
+    <hyperlink ref="B59" r:id="rId57" xr:uid="{6FE8F4B2-69D4-48F7-9BF6-E2BE1B37DAF8}"/>
+    <hyperlink ref="B60" r:id="rId58" xr:uid="{3A10D79D-2C0A-4FD1-8C72-3BD5878B0F81}"/>
+    <hyperlink ref="B61" r:id="rId59" xr:uid="{9AFAEAFC-B4A1-4049-BD5C-C3F84569E568}"/>
+    <hyperlink ref="B62" r:id="rId60" xr:uid="{03B62E20-754A-431B-915C-701EC23EB90C}"/>
+    <hyperlink ref="B63" r:id="rId61" xr:uid="{5A97F98B-B190-46D1-869F-AA3D3A98274A}"/>
+    <hyperlink ref="B64" r:id="rId62" xr:uid="{4663E0FA-674B-4ACF-86D8-8D6ABA564B6D}"/>
+    <hyperlink ref="B65" r:id="rId63" xr:uid="{FF5FB48D-9B8D-48FA-A0BD-CA6E8A5352AE}"/>
+    <hyperlink ref="B66" r:id="rId64" xr:uid="{11AED9A4-38D6-43C5-9DBC-FB527640A355}"/>
+    <hyperlink ref="B67" r:id="rId65" display="https://nakedsecurity.sophos.com/" xr:uid="{E719E00E-387F-423F-9335-B69607BB8B07}"/>
+    <hyperlink ref="B68" r:id="rId66" xr:uid="{9E7404C4-ABD3-4558-BE33-BAC58535C01E}"/>
+    <hyperlink ref="B2" r:id="rId67" xr:uid="{CE7A1B3D-82E7-4E0C-BA0F-A695BC04F747}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
